--- a/eyelash_product_ranking.xlsx
+++ b/eyelash_product_ranking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Market Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\Market Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="52">
+  <si>
+    <t>Wholesale Individual Eyelash Extension Private Label Premium Individual Korean Silk Synthetic Mink Eyelash Extension</t>
+  </si>
+  <si>
+    <t>Wholesale Individual Eyelash Extension Private Label Premium Individual Korean Eyelash Extension wholesale lash</t>
+  </si>
   <si>
     <t>Wholesale Individual Eyelash Lash Extension Private Label Premium Individual Korean Silk Synthetic Mink Eyelash Extension lash</t>
   </si>
@@ -30,12 +36,18 @@
     <t>eyelash extension</t>
   </si>
   <si>
+    <t>eyelash extension private label</t>
+  </si>
+  <si>
     <t>volume eyelash private label</t>
   </si>
   <si>
     <t>volume eyelash</t>
   </si>
   <si>
+    <t>silk eyelash extension wholesale</t>
+  </si>
+  <si>
     <t>eyelash extension wholesale</t>
   </si>
   <si>
@@ -60,6 +72,9 @@
     <t>wholesale lash</t>
   </si>
   <si>
+    <t>2-39</t>
+  </si>
+  <si>
     <t>eyelash vendor</t>
   </si>
   <si>
@@ -78,7 +93,7 @@
     <t>private label lash</t>
   </si>
   <si>
-    <t>3-1</t>
+    <t>2-50</t>
   </si>
   <si>
     <t>eyelash private label</t>
@@ -93,6 +108,12 @@
     <t>own brand lash</t>
   </si>
   <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
     <t>3-33</t>
   </si>
   <si>
@@ -105,12 +126,18 @@
     <t>korean eyelash extension</t>
   </si>
   <si>
+    <t>1-48</t>
+  </si>
+  <si>
     <t>1-46</t>
   </si>
   <si>
     <t>premium eyelash extension</t>
   </si>
   <si>
+    <t>1-39</t>
+  </si>
+  <si>
     <t>lash extension</t>
   </si>
   <si>
@@ -129,19 +156,22 @@
     <t>individual lash extension</t>
   </si>
   <si>
-    <t>eyelash extension private label</t>
-  </si>
-  <si>
     <t>lash extension private label</t>
   </si>
   <si>
     <t>private label eyelash extension</t>
   </si>
   <si>
+    <t>2-35</t>
+  </si>
+  <si>
     <t>private label lash extension</t>
   </si>
   <si>
     <t>synthetic mink eyelash extension</t>
+  </si>
+  <si>
+    <t>1-24</t>
   </si>
   <si>
     <t>korean eyelash</t>
@@ -151,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,10 +209,12 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Roboto"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -235,13 +267,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,407 +565,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.125" customWidth="1"/>
-    <col min="2" max="2" width="42.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="35.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="42.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="46.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="8">
         <v>60732345735</v>
       </c>
       <c r="C1" s="8">
         <v>60732345735</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="53.25" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="D1" s="8">
+        <v>60732345735</v>
+      </c>
+      <c r="E1" s="8">
+        <v>60732345735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="8" t="s">
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1">
+        <v>28</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1">
+        <v>32</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1">
+        <v>34</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="7"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
